--- a/biology/Botanique/Camélia_du_Japon/Camélia_du_Japon.xlsx
+++ b/biology/Botanique/Camélia_du_Japon/Camélia_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cam%C3%A9lia_du_Japon</t>
+          <t>Camélia_du_Japon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camellia japonica
 Camellia japonica, communément appelé Camélia du Japon ou plus simplement camélia, est une espèce de plantes à fleurs de la famille des Theaceae. C'est un arbuste originaire d'Asie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cam%C3%A9lia_du_Japon</t>
+          <t>Camélia_du_Japon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord cultivé en Chine, puis au Japon, notamment pendant la période Edo, où il jouait un rôle majeur dans la cérémonie du thé (en particulier les types Higo et wabisuke), (ne pas confondre le Camellia japonica et le Camellia sinensis que l'on utilise pour le thé), le camélia s'est très vite répandu dans toute l'Europe au cours de la première moitié du XIXe siècle, avant de sombrer dans un oubli relatif, jusqu'à l'apparition des premiers hybrides dans les années 1930. Elle est aussi appelée Rose du Japon.
 Le camélia "de Higo", ancienne province appelée aujourd'hui Kumamoto, était un emblème des Samouraïs de cette région car il avait la particularité d'avoir plus de 200 étamines qui occupaient la quasi-totalité de la fleur, composée de 5 à 9 pétales disposés à plat. Pour les Samouraïs, cela faisait référence à l'importance du "cœur" par rapport à celle du corps (à l'inverse des camélias "wabisuke", symboles d'humilité et de recueillement). Plus tard, durant l'ère Meiji, le camellia devient un symbole de mort: il était surtout planté autour des cimetières, et la fleur fanée qui tombe entièrement sans perdre ses pétales évoquait les décapitations "trophées" par les samourais (Nantabuki), avant de redevenir à la mode à la fin du XXe siècle.
 C. japonica aurait été rapporté du Japon par les marchands portugais au XVIe siècle, puis à plusieurs reprises par les Britanniques en provenance de Chine, à la fin du XVIIIe siècle.
 Joséphine de Beauharnais en a lancé la mode en France. Au XIXe siècle, Nantes et Angers étaient les principaux centres de production des camélias (d'abord surtout utilisés comme fleur coupée, avant de devenir des plantes de parcs). Aujourd'hui, la grande majorité des camélias français est produite dans le Finistère.
 Certains spécimens japonais sont âgés d'au moins 500 ans.
-Elle est la fleur de prédilection de Chanel, introduite par Mademoiselle. Elle est réinterprétée de multiples fois, en cuir, tweed, mousseline, satin[1]...
+Elle est la fleur de prédilection de Chanel, introduite par Mademoiselle. Elle est réinterprétée de multiples fois, en cuir, tweed, mousseline, satin...
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cam%C3%A9lia_du_Japon</t>
+          <t>Camélia_du_Japon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Orthographe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre Dumas (fils) a consacré l'orthographe Camélia dans son roman, La Dame aux camélias. Depuis c'est cette orthographe qui est favorisée par l'Académie française. Cependant, depuis le XIXe siècle, les amateurs et les professionnels ont également maintenu l'orthographe d'origine en latin, Camellia[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Dumas (fils) a consacré l'orthographe Camélia dans son roman, La Dame aux camélias. Depuis c'est cette orthographe qui est favorisée par l'Académie française. Cependant, depuis le XIXe siècle, les amateurs et les professionnels ont également maintenu l'orthographe d'origine en latin, Camellia.
 Les deux orthographes sont donc aujourd'hui en usage.
 </t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cam%C3%A9lia_du_Japon</t>
+          <t>Camélia_du_Japon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +596,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste persistant
 Origine : Zone 7 - Japon, Corée, Chine
 Feuillage : vert foncé brillant, forme alterne, ovale à elliptique
 Fleurs : rouges, roses ou blanches
 Hauteur : 1 à 10 m (voire plus), à croissance lente.
-La plupart des variétés s'épanouissent de décembre à avril, mais certains de ses 35 000 cultivars[3] fleurissent jusqu'en juin.
+La plupart des variétés s'épanouissent de décembre à avril, mais certains de ses 35 000 cultivars fleurissent jusqu'en juin.
 			Camélia.
 			Camellia japonica 'Hikarugenji' au château de Trévarez.
 			Feuillage du Camellia japonica 'Comte de Gomer' au château de Trévarez.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cam%C3%A9lia_du_Japon</t>
+          <t>Camélia_du_Japon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Variétés et couleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adolphe Audusson (rouge)
@@ -735,7 +755,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cam%C3%A9lia_du_Japon</t>
+          <t>Camélia_du_Japon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -753,9 +773,11 @@
           <t>Vertus cosmétiques ou médicinales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des tests in vitro laissent penser que Camellia japonica pourrait avoir des vertus protectrices de la peau (encore non comprises en 2019) contre la pollution de l'air[4]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des tests in vitro laissent penser que Camellia japonica pourrait avoir des vertus protectrices de la peau (encore non comprises en 2019) contre la pollution de l'air
 </t>
         </is>
       </c>
